--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2357907.248933629</v>
+        <v>-2360475.449212994</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646763</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>327.7619254218787</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734575</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429072</v>
@@ -1385,10 +1385,10 @@
         <v>384.0006094546492</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885162</v>
+        <v>1.763063477301067</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412171</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937156</v>
+        <v>82.26664558937165</v>
       </c>
       <c r="T11" t="n">
-        <v>76.88639976845036</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713306</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3198525186087</v>
+        <v>322.3198525186088</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796648</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572493</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910863983133</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998236</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194081</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5128464477649</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
-        <v>38.79145586707081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155165</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103385</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124307</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326376</v>
+        <v>77.52328479330482</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6278330773649</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250237</v>
+        <v>225.2165271250238</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377867</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7885391902329</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722033</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218787</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429072</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546492</v>
+        <v>129.6785429491176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412183</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>157.7769358783475</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F16" t="n">
-        <v>118.499931824127</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.93172773849885</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103388</v>
+        <v>69.43130421103399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124314</v>
+        <v>62.01103647124322</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
-        <v>192.627833077365</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377868</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7885391902329</v>
+        <v>113.7898017928097</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077908</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>228.8515791576871</v>
+        <v>86.1306881958251</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386568</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645405</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5377098291724</v>
+        <v>134.9529178109775</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553447</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692401</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244134</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265057</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140451</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0679044405793</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064312</v>
+        <v>178.2413905064313</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191942</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
-        <v>308.034117254865</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>275.2859650744149</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077908</v>
+        <v>35.2915089707792</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>97.91638104432805</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000162</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386568</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645405</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553447</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2739700787309</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244134</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265057</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8727725140451</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587724</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064312</v>
+        <v>240.6565984882365</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191942</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
-        <v>308.034117254865</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077908</v>
+        <v>35.29150897077919</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8560056527381</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3416858386568</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645405</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F25" t="n">
-        <v>133.940003187341</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692401</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244134</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265057</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8727725140451</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6526964587724</v>
+        <v>208.0679044405781</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064312</v>
+        <v>178.2413905064313</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191942</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020905</v>
@@ -2564,10 +2564,10 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H26" t="n">
         <v>247.632627768728</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958339</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210277</v>
@@ -2612,13 +2612,13 @@
         <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y26" t="n">
         <v>339.2628020374611</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433876</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145489</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704447</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3092,7 +3092,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598772</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124555</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.0466417408</v>
+        <v>1544.43696021432</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.0466417408</v>
+        <v>1544.43696021432</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799508</v>
+        <v>1213.364308273029</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866723</v>
+        <v>854.7691023402433</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425744</v>
+        <v>470.9762442160945</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7065222530297</v>
+        <v>83.09684072654996</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725585</v>
+        <v>81.31596852725595</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3242.508199801724</v>
       </c>
       <c r="T11" t="n">
-        <v>3164.845169732583</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="U11" t="n">
-        <v>3164.845169732583</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="V11" t="n">
-        <v>2860.975329054471</v>
+        <v>2938.638359123613</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.399720449816</v>
+        <v>2613.062750518957</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.399720449816</v>
+        <v>2266.790038923336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.453435139463</v>
+        <v>1903.843753612983</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.2389517459389</v>
+        <v>760.7525638237737</v>
       </c>
       <c r="C13" t="n">
-        <v>538.4958154834909</v>
+        <v>619.0094275613255</v>
       </c>
       <c r="D13" t="n">
-        <v>415.572222736614</v>
+        <v>496.0858348144486</v>
       </c>
       <c r="E13" t="n">
-        <v>294.8521758196795</v>
+        <v>375.3657878975143</v>
       </c>
       <c r="F13" t="n">
-        <v>294.8521758196795</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650626</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483792</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159356</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016282</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869407</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946396023306</v>
+        <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765987</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988181723216</v>
+        <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193692</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383023</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806009</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298295</v>
+        <v>2062.203440106956</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533279</v>
+        <v>1867.629871341941</v>
       </c>
       <c r="U13" t="n">
-        <v>1718.805971533279</v>
+        <v>1605.720051133043</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.314529992851</v>
+        <v>1378.228609592615</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.090406621349</v>
+        <v>1116.004486221113</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.293902388791</v>
+        <v>915.2079819885546</v>
       </c>
       <c r="Y13" t="n">
-        <v>834.6943699107197</v>
+        <v>915.2079819885546</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.012259920682</v>
+        <v>1627.534582021766</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.242789645729</v>
+        <v>1285.765111746813</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.170137704437</v>
+        <v>954.6924598055214</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574931771652</v>
+        <v>596.0972538727357</v>
       </c>
       <c r="F14" t="n">
-        <v>724.782073647503</v>
+        <v>212.3043957485869</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579574</v>
+        <v>81.31596852725598</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725598</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5306,22 +5306,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3166.23517930781</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3166.23517930781</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2862.365338629698</v>
+        <v>3021.735980931059</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.365338629698</v>
+        <v>2696.160372326404</v>
       </c>
       <c r="X14" t="n">
-        <v>2862.365338629698</v>
+        <v>2349.887660730782</v>
       </c>
       <c r="Y14" t="n">
-        <v>2499.419053319345</v>
+        <v>1986.941375420429</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>572.7845497018216</v>
+        <v>658.6418602042678</v>
       </c>
       <c r="C16" t="n">
-        <v>572.7845497018216</v>
+        <v>516.8987239418196</v>
       </c>
       <c r="D16" t="n">
-        <v>572.7845497018216</v>
+        <v>516.8987239418196</v>
       </c>
       <c r="E16" t="n">
-        <v>452.0645027848871</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="F16" t="n">
-        <v>332.3676019524353</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650627</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H16" t="n">
         <v>136.6447469483793</v>
@@ -5437,10 +5437,10 @@
         <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869399</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5452,34 +5452,34 @@
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.872377806009</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.379540298294</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533279</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.896151324381</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.404709783953</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124514</v>
+        <v>967.18058641245</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798929</v>
+        <v>852.2413926823392</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7845497018216</v>
+        <v>658.6418602042678</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.16888924753</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.84905192065</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2260329274318</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274318</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513564</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749797</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>3146.71802449654</v>
       </c>
       <c r="V17" t="n">
-        <v>2748.571756364529</v>
+        <v>3059.717329349241</v>
       </c>
       <c r="W17" t="n">
-        <v>2470.445780707947</v>
+        <v>2781.591353692659</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.622702060399</v>
+        <v>2482.768275045111</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.12604969812</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470828</v>
+        <v>632.1605877751695</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327079</v>
+        <v>537.8670844607946</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339043</v>
+        <v>462.3931246619908</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650433</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F19" t="n">
-        <v>253.829778180665</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689161</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
         <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454881</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194057</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601702</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782737</v>
+        <v>1038.663143806361</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937885</v>
+        <v>885.3162725218754</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637904</v>
+        <v>739.1663729918772</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232241</v>
+        <v>1797.037868444464</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1502.718031117585</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>1219.095012124366</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274311</v>
+        <v>907.949439139654</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513557</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749797</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747551</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.717329349241</v>
+        <v>2979.73496763492</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.717329349241</v>
+        <v>2723.314759904882</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.591353692659</v>
+        <v>2723.314759904882</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045111</v>
+        <v>2424.491681257334</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682831</v>
+        <v>2108.995028895054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751705</v>
+        <v>569.1149231470837</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607957</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619921</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1227106931311</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8754428087528</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8152857970039</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
         <v>1795.063565899911</v>
@@ -5941,19 +5941,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822145</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782749</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218762</v>
+        <v>822.2706078937896</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918781</v>
+        <v>676.1207083637914</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792332</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859983465452</v>
+        <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
         <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875214</v>
+        <v>973.0913914875205</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114459</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512977</v>
+        <v>429.6622549716509</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411442</v>
+        <v>763.4816286614973</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110192889553</v>
+        <v>1214.515841909906</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005837</v>
+        <v>1748.047746581831</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.823484064619</v>
+        <v>2294.826563640613</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943956</v>
+        <v>2797.79903451995</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301133</v>
+        <v>3192.573400877128</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056816</v>
+        <v>3544.797427382565</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.58268790933</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
         <v>2788.456712252748</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.633633605201</v>
+        <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
         <v>2174.136981242921</v>
@@ -6063,25 +6063,25 @@
         <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828907</v>
+        <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632378</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775903</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998219</v>
+        <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970728</v>
+        <v>2103.777751970727</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352592</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208844</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220808</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532197</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.695136740754</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290053</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039494</v>
+        <v>96.06047256039508</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365803</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361293</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496066</v>
+        <v>1856.549610496067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648581</v>
+        <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019641</v>
+        <v>1918.972129019642</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643058</v>
+        <v>1591.759324014972</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382233</v>
+        <v>1377.299136754147</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789879</v>
+        <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.4828377383639</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819648</v>
+        <v>829.1359664538785</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519668</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668918</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644151</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702933</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.58687458227</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939448</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
         <v>3933.269522603403</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415475</v>
@@ -6382,52 +6382,52 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960326</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973154</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308446</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481266</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.094314970129</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.628073400776</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3979.725003735986</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6497,16 +6497,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668918</v>
@@ -6634,10 +6634,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,58 +6686,58 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>399.9472504130718</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>733.7666241029183</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1184.800837351327</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1718.332742023252</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2265.111559082034</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,22 +6841,22 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910139</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M35" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N35" t="n">
-        <v>2456.094314970129</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3336.058965299584</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3730.833331656761</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3979.119693412444</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7078,31 +7078,31 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,7 +7160,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,25 +7172,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991704</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890168</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7205,7 +7205,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350172</v>
@@ -7348,10 +7348,10 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7412,22 +7412,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>810.872990474187</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1261.907203722596</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552424</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611206</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490543</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603403</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7552,13 +7552,13 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7570,10 +7570,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7649,22 +7649,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>810.872990474187</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L44" t="n">
-        <v>1261.907203722596</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M44" t="n">
-        <v>2240.457506552424</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611206</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490543</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.983160847721</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
@@ -7725,25 +7725,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7789,13 +7789,13 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,10 +7807,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -8453,25 +8453,25 @@
         <v>164.445018788609</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592906</v>
+        <v>195.2094266592907</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419189</v>
+        <v>204.9000484419191</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526776</v>
+        <v>196.0014531526778</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740267</v>
+        <v>194.5125490740269</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201052</v>
+        <v>197.1426452201054</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561907</v>
+        <v>203.1061824561909</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567226</v>
+        <v>201.1836244567227</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>116.9502528485205</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814158</v>
+        <v>120.9423422814159</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981497</v>
+        <v>115.8314587981498</v>
       </c>
       <c r="M9" t="n">
-        <v>115.617456907288</v>
+        <v>115.6174569072881</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775605</v>
+        <v>104.1233201775607</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951442</v>
+        <v>117.6967333951443</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175961</v>
+        <v>113.9903546175962</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213389</v>
+        <v>126.622964021339</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,13 +8614,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.840546321879</v>
+        <v>121.8405463218791</v>
       </c>
       <c r="M10" t="n">
         <v>125.1725778274368</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466753</v>
+        <v>114.2593588466754</v>
       </c>
       <c r="O10" t="n">
         <v>126.0552829419909</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8005751963228</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>104.9875401512669</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148785</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>12.68816924374732</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>18.79169145623253</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>131.2335379367245</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591604</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>400.2032972882099</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.40311602546713</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550059</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>40.02214132148788</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>165.3902622431548</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>40.02214132148788</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>165.3902622431548</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>265.9235847112152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>100.1104541723655</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600977</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796648</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.499931824127</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>100.3132361931531</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124315</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>85.3246243393329</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068086</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>254.3220665055318</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412174</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937162</v>
+        <v>82.26664558937171</v>
       </c>
       <c r="T14" t="n">
-        <v>19.21991806246843</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186088</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796648</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998236</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>63.17296432172516</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>84.99873739742334</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.034117254865</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.2915089707792</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0217173222236</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25.00442649505107</v>
+        <v>167.7253174569132</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>57.6938278498999</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.18253809717716</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527381</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1321346.685345163</v>
+        <v>1321346.685345164</v>
       </c>
     </row>
     <row r="8">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170386</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.75143531642</v>
+        <v>81927.75143531643</v>
       </c>
       <c r="D2" t="n">
-        <v>81929.19080833593</v>
+        <v>81929.19080833589</v>
       </c>
       <c r="E2" t="n">
-        <v>72954.17134129521</v>
+        <v>72954.17134129524</v>
       </c>
       <c r="F2" t="n">
-        <v>72954.17134129522</v>
+        <v>72954.17134129518</v>
       </c>
       <c r="G2" t="n">
-        <v>79453.19017817899</v>
+        <v>79453.19017817895</v>
       </c>
       <c r="H2" t="n">
-        <v>79453.19017817893</v>
+        <v>79453.19017817891</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642839</v>
@@ -26341,19 +26341,19 @@
         <v>82104.17698642831</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.8501593638</v>
+        <v>38521.85015936355</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015502</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071771</v>
+        <v>22820.53767071777</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049039</v>
+        <v>25410.34822049027</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343055</v>
+        <v>422862.8573343056</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554761</v>
+        <v>38195.30988554749</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.3098855475</v>
+        <v>38195.30988554739</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400187</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400187</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157192</v>
+        <v>86759.13279157183</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409834</v>
+      </c>
+      <c r="K4" t="n">
+        <v>82806.76150409844</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82806.76150409837</v>
+      </c>
+      <c r="M4" t="n">
         <v>82806.76150409839</v>
       </c>
-      <c r="K4" t="n">
-        <v>82806.76150409848</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82806.76150409844</v>
-      </c>
-      <c r="M4" t="n">
-        <v>82806.76150409848</v>
-      </c>
       <c r="N4" t="n">
+        <v>82806.76150409839</v>
+      </c>
+      <c r="O4" t="n">
         <v>82806.76150409842</v>
       </c>
-      <c r="O4" t="n">
-        <v>82806.76150409845</v>
-      </c>
       <c r="P4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409842</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058921</v>
+        <v>34688.2630805892</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911058</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26503,7 +26503,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254124</v>
       </c>
       <c r="C6" t="n">
-        <v>-390366.4066267373</v>
+        <v>-390370.8172655151</v>
       </c>
       <c r="D6" t="n">
-        <v>-414143.7797659226</v>
+        <v>-414148.1544203748</v>
       </c>
       <c r="E6" t="n">
-        <v>-1148026.671438865</v>
+        <v>-1148255.421579994</v>
       </c>
       <c r="F6" t="n">
-        <v>-41810.71042336278</v>
+        <v>-42039.46056449105</v>
       </c>
       <c r="G6" t="n">
-        <v>-113868.7509001959</v>
+        <v>-113935.0255704021</v>
       </c>
       <c r="H6" t="n">
-        <v>-76288.64160532194</v>
+        <v>-76354.91627552813</v>
       </c>
       <c r="I6" t="n">
         <v>-113211.8906210279</v>
       </c>
       <c r="J6" t="n">
-        <v>-115490.8744129665</v>
+        <v>-115490.8744129663</v>
       </c>
       <c r="K6" t="n">
-        <v>-90080.52619247629</v>
+        <v>-90080.52619247625</v>
       </c>
       <c r="L6" t="n">
-        <v>-127660.6354873503</v>
+        <v>-127660.6354873502</v>
       </c>
       <c r="M6" t="n">
-        <v>-297269.0944845492</v>
+        <v>-297269.0944845491</v>
       </c>
       <c r="N6" t="n">
-        <v>-90080.52619247614</v>
+        <v>-90080.52619247619</v>
       </c>
       <c r="O6" t="n">
-        <v>-90080.52619247623</v>
+        <v>-90080.52619247617</v>
       </c>
       <c r="P6" t="n">
-        <v>-90080.52619247625</v>
+        <v>-90080.52619247617</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859255</v>
@@ -26741,13 +26741,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179881</v>
+        <v>48.65426975179852</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034046</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26817,10 +26817,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855649</v>
+        <v>44.98040685855621</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841499</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111202</v>
+        <v>85.81698200111225</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1180238052101</v>
+        <v>97.11802380520965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403306</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128223</v>
+        <v>137.5825701128224</v>
       </c>
       <c r="S8" t="n">
         <v>204.562947286872</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.793462874513</v>
+        <v>85.79346287451301</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805385</v>
+        <v>93.66019412805389</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.1561595288082</v>
+        <v>87.15615952880823</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739124</v>
+        <v>12.0760235073913</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917277</v>
+        <v>78.81524851917281</v>
       </c>
       <c r="R10" t="n">
         <v>173.3484074723761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880428</v>
+        <v>26.92111619880419</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559169</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T19" t="n">
-        <v>11.48104483558993</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H22" t="n">
-        <v>11.48104483558984</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559155</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F25" t="n">
-        <v>11.48104483559021</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559106</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859378</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859472</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
         <v>46.97513661859255</v>
@@ -30894,7 +30894,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q46" t="n">
         <v>46.97513661859255</v>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.195595054278588</v>
+        <v>0.1955950542785869</v>
       </c>
       <c r="H8" t="n">
-        <v>2.00313784963059</v>
+        <v>2.003137849630579</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075272</v>
+        <v>7.540678330075228</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807732</v>
+        <v>16.60088573807723</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568996</v>
+        <v>24.88042438568981</v>
       </c>
       <c r="L8" t="n">
-        <v>30.8663665280683</v>
+        <v>30.86636652806813</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459514</v>
+        <v>34.34478007459494</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256419</v>
+        <v>34.90051452256398</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158148</v>
+        <v>32.95556620158128</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907883</v>
+        <v>28.12681329907866</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772689</v>
+        <v>21.12206541772676</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832737</v>
+        <v>12.28654782832729</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373329</v>
+        <v>4.457122299373303</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045195</v>
+        <v>0.8562173501045145</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228704</v>
+        <v>0.01564760434228695</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208503</v>
+        <v>0.1046525802208497</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711896</v>
+        <v>1.01072360371189</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902082</v>
+        <v>3.603169976902061</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146211</v>
+        <v>9.887373818146152</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294318</v>
+        <v>16.89909669294308</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172453</v>
+        <v>22.7229209817244</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473035</v>
+        <v>26.51657701473019</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577281</v>
+        <v>27.21839190577265</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930028</v>
+        <v>24.89951104930014</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673412</v>
+        <v>19.984052796734</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468257</v>
+        <v>13.35881006468249</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589285</v>
+        <v>6.497640024589247</v>
       </c>
       <c r="S9" t="n">
-        <v>1.94387577734781</v>
+        <v>1.943875777347798</v>
       </c>
       <c r="T9" t="n">
-        <v>0.421823338697199</v>
+        <v>0.4218233386971965</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424363</v>
+        <v>0.006885038172424323</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914538</v>
+        <v>0.08773720774914487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878568</v>
+        <v>0.7800635379878522</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310664</v>
+        <v>2.638497120310648</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864578</v>
+        <v>6.203020587864541</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849162</v>
+        <v>10.19346831849156</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935931</v>
+        <v>13.04412995935923</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016831</v>
+        <v>13.75320612016823</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855787</v>
+        <v>13.42618561855779</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985194</v>
+        <v>12.40125550985186</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176936</v>
+        <v>10.6114164717693</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521619</v>
+        <v>7.346794732521577</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793391</v>
+        <v>3.944983904793367</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773742</v>
+        <v>1.529020247773733</v>
       </c>
       <c r="T10" t="n">
-        <v>0.374877160382712</v>
+        <v>0.3748771603827098</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226117</v>
+        <v>0.004785665877226089</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187048</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431238</v>
+        <v>232.9687757431237</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690024</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
         <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7780623663443</v>
+        <v>371.7780623663442</v>
       </c>
       <c r="O13" t="n">
-        <v>329.274246421444</v>
+        <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
         <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366979</v>
+        <v>105.3153547366978</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187042</v>
+        <v>72.49953281187035</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431238</v>
+        <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
         <v>346.6784883690023</v>
@@ -35817,13 +35817,13 @@
         <v>371.7780623663443</v>
       </c>
       <c r="O16" t="n">
-        <v>329.274246421444</v>
+        <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
         <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366979</v>
+        <v>105.3153547366978</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7216910265494</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>355.7818449549864</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597809</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252073</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165998</v>
+        <v>92.55355323165867</v>
       </c>
       <c r="K28" t="n">
         <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861348</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412322</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>520.7411701319663</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>78.40488999845731</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>322.020538905437</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439814077</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>855.793411680542</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>79.01631456769185</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237184</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>377.2134278768883</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>377.2134278768883</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
